--- a/Design/Testing/Game Page Test.xlsx
+++ b/Design/Testing/Game Page Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BA8AF-2A40-4833-B33F-74FD3B6FDBF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885F102-E768-46DE-93CD-50C4B18FF4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>Test Number</t>
   </si>
   <si>
-    <t>Test Area</t>
-  </si>
-  <si>
     <t>Test Discription</t>
   </si>
   <si>
@@ -40,13 +37,268 @@
   </si>
   <si>
     <t>Reason for fail</t>
+  </si>
+  <si>
+    <t>Non login Access</t>
+  </si>
+  <si>
+    <t>Can a user get to the page without loggin in first</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Can a user play the game without setting a gamemode</t>
+  </si>
+  <si>
+    <t>Does the addiition game mode work</t>
+  </si>
+  <si>
+    <t>Does the subtraction game mode work</t>
+  </si>
+  <si>
+    <t>When the user clicks to play the addition mode, does the game work corectly for addition</t>
+  </si>
+  <si>
+    <t>When the user clicks to play the subtraction mode, does the game work corectly for subtraction</t>
+  </si>
+  <si>
+    <t>Start Game</t>
+  </si>
+  <si>
+    <t>Dose the game start correctly when the user clicks the 'Start Game' button. This means the questions and answers to show correctly</t>
+  </si>
+  <si>
+    <t>Answer text</t>
+  </si>
+  <si>
+    <t>Question text</t>
+  </si>
+  <si>
+    <t>The correct text size and format is shown to the user. It also shows answers in all the boxes</t>
+  </si>
+  <si>
+    <t>Does the text show up for the question in a reasonable format and size for the user to read. Does it also show up in an appropriate area of the screen. Does the correct game mode questions show up</t>
+  </si>
+  <si>
+    <t>Does the Text that shows the user's the asnwers show up correctly and in a good enough font/size. Does the answers fill all the question boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Answer </t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected output</t>
+  </si>
+  <si>
+    <t>User logins in without any sessios being created</t>
+  </si>
+  <si>
+    <t>user gets taken to the login screen</t>
+  </si>
+  <si>
+    <t>No game mode set</t>
+  </si>
+  <si>
+    <t>gamemode would equal null</t>
+  </si>
+  <si>
+    <t>gamemode equals +</t>
+  </si>
+  <si>
+    <t>Actual  output</t>
+  </si>
+  <si>
+    <t>A user cannot get to the page without loggin in. The user just gets taken to the login screen</t>
+  </si>
+  <si>
+    <t>A user cannot play the game without setting a gamemode, if the user finds a way around, the system sets it to the addition mode</t>
+  </si>
+  <si>
+    <t>The user gets subtraction questions and answers to complete</t>
+  </si>
+  <si>
+    <t>The user gets addition questions and answers to complete</t>
+  </si>
+  <si>
+    <t>When the user clicks on the 'Start Game' button the game starts correctly. The correct question and aswers also show up for the users</t>
+  </si>
+  <si>
+    <t>The correct questions showed up in the correct format and for the correct game mode for the user.</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>gamemode gets set to +</t>
+  </si>
+  <si>
+    <t>gamemode gets set to -</t>
+  </si>
+  <si>
+    <t>Start game runs the RandomQuestionGenerator() function</t>
+  </si>
+  <si>
+    <t>The RandomQuestionGenerator() runs when the start game button is clicked</t>
+  </si>
+  <si>
+    <t>Does the answer come up in more than one box, e.g. 2 boxes contain the number that is the answer</t>
+  </si>
+  <si>
+    <t>AnswerChecker(sqaureName) function runs, which changes the number in the square into another random number that is not the answer</t>
+  </si>
+  <si>
+    <t>No two squares have the answers in them</t>
+  </si>
+  <si>
+    <t>Game Difficulty</t>
+  </si>
+  <si>
+    <t>Does the game get the correct difficutly from the databse/ set the correct difficutly if the user is a guest</t>
+  </si>
+  <si>
+    <t>The difficutly is recived from the database and set to the correct varibale via PHP code. If the user is a guest, difficutly is set too 1</t>
+  </si>
+  <si>
+    <t>The diffiuclty is set to what the users difficutly is set to on the database. If the user is a guest the difficutly is set to 1</t>
+  </si>
+  <si>
+    <t>The diffiuclty is set to what the users difficutly is set to on the database. If the user is a guest the difficutly is set to 2</t>
+  </si>
+  <si>
+    <t>Wrong answer</t>
+  </si>
+  <si>
+    <t>Does the game move on to the next question without adding +1 to the score</t>
+  </si>
+  <si>
+    <t>50px</t>
+  </si>
+  <si>
+    <t>User clicks the wrong answer</t>
+  </si>
+  <si>
+    <t>The score does not increase but the game moves onto the next question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Does the game add +1 to the score and move onto the next question</t>
+  </si>
+  <si>
+    <t>User clicks right answer</t>
+  </si>
+  <si>
+    <t>The game adds +1 to the score and moves onto the next question</t>
+  </si>
+  <si>
+    <t>Question number</t>
+  </si>
+  <si>
+    <t>Last question</t>
+  </si>
+  <si>
+    <t>Form submission</t>
+  </si>
+  <si>
+    <t>Logging Out</t>
+  </si>
+  <si>
+    <t>Does the question number increase when a new question is generated</t>
+  </si>
+  <si>
+    <t>Question number gets increased by 1 on new question</t>
+  </si>
+  <si>
+    <t>User clicks on an answer</t>
+  </si>
+  <si>
+    <t>When the user gets to question 10, does the game end</t>
+  </si>
+  <si>
+    <t>No new questions are created</t>
+  </si>
+  <si>
+    <t>Did the form get completed correctly and automaically at the end of the game</t>
+  </si>
+  <si>
+    <t>User answers a question while they are already on question 10</t>
+  </si>
+  <si>
+    <t>User answers a question while they are already on question 11</t>
+  </si>
+  <si>
+    <t>Form gets created and filled in correctly, then submitted automatically</t>
+  </si>
+  <si>
+    <t>What happens when the user clicks the Log Off button</t>
+  </si>
+  <si>
+    <t>User clicks the Log off button</t>
+  </si>
+  <si>
+    <t>User sessions gets removed and then taken back to the login screen</t>
+  </si>
+  <si>
+    <t>Staff access</t>
+  </si>
+  <si>
+    <t>Can the staff access the game page</t>
+  </si>
+  <si>
+    <t>The staff logs in</t>
+  </si>
+  <si>
+    <t>admin access</t>
+  </si>
+  <si>
+    <t>Can the admin access the game page</t>
+  </si>
+  <si>
+    <t>The admin logs in</t>
+  </si>
+  <si>
+    <t>The staff should not be able to access this page and gets taken back to staff page</t>
+  </si>
+  <si>
+    <t>The admin should not be able to access this page and gets taken back to staff page</t>
+  </si>
+  <si>
+    <t>Score text</t>
+  </si>
+  <si>
+    <t>Does the question text show up in a reasonable format and size</t>
+  </si>
+  <si>
+    <t>Does the score text show up in a reasonable format and size</t>
+  </si>
+  <si>
+    <t>The game starts</t>
+  </si>
+  <si>
+    <t>The user has answered the first question correctly</t>
+  </si>
+  <si>
+    <t>Question number is shown in a reasonable size and format for the user to read</t>
+  </si>
+  <si>
+    <t>Score number is shown in a reasonable size and format for the user to read</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +306,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,12 +349,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,39 +699,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="1" customWidth="1"/>
+    <col min="3" max="4" width="41.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/Testing/Game Page Test.xlsx
+++ b/Design/Testing/Game Page Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885F102-E768-46DE-93CD-50C4B18FF4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D535F-A8D4-4903-9EC5-42AD6BBDC6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Test Number</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Does the game move on to the next question without adding +1 to the score</t>
   </si>
   <si>
-    <t>50px</t>
-  </si>
-  <si>
     <t>User clicks the wrong answer</t>
   </si>
   <si>
@@ -292,6 +289,15 @@
   </si>
   <si>
     <t>Score number is shown in a reasonable size and format for the user to read</t>
+  </si>
+  <si>
+    <t>User gets to the game page</t>
+  </si>
+  <si>
+    <t>The text in the boxe needs to be reasonably sized, e.g. 40px. Font must also be readbly to the user</t>
+  </si>
+  <si>
+    <t>If two squares have the answer in them, the user could click the wrong square and not gain a point for it</t>
   </si>
 </sst>
 </file>
@@ -701,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,9 +914,15 @@
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G7" s="5" t="s">
         <v>35</v>
       </c>
@@ -933,10 +945,14 @@
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G8" s="5" t="s">
         <v>17</v>
       </c>
@@ -967,7 +983,9 @@
       <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="H9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1012,16 +1030,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
@@ -1037,19 +1055,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
@@ -1071,13 +1089,13 @@
         <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
@@ -1093,19 +1111,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
@@ -1121,19 +1139,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
@@ -1149,19 +1167,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
@@ -1177,19 +1195,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
@@ -1205,19 +1223,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
@@ -1233,19 +1251,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
@@ -1261,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">

--- a/Design/Testing/Game Page Test.xlsx
+++ b/Design/Testing/Game Page Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D535F-A8D4-4903-9EC5-42AD6BBDC6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5F4F83-FCA9-4D1F-BA0E-C322A971C01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>Test Number</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>If two squares have the answer in them, the user could click the wrong square and not gain a point for it</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Unknown, the tab somtimes completely crashes and nothing was able to detect the reason for the crash</t>
   </si>
 </sst>
 </file>
@@ -707,20 +713,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -844,7 +850,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -867,10 +873,10 @@
         <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="J5" s="3"/>
     </row>
